--- a/rider/weekly/2016_34.xlsx
+++ b/rider/weekly/2016_34.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>191</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97.3</c:v>
+                  <c:v>96.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.6</c:v>
+                  <c:v>99.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.33</c:v>
+                  <c:v>105.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.27</c:v>
+                  <c:v>103.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.56</c:v>
+                  <c:v>101.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.73</c:v>
+                  <c:v>47.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.56</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>97.3</v>
+        <v>96.91</v>
       </c>
       <c r="E2">
         <v>77.04</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D3">
-        <v>99.6</v>
+        <v>99.79</v>
       </c>
       <c r="E3">
         <v>77.2</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D4">
-        <v>106.33</v>
+        <v>105.55</v>
       </c>
       <c r="E4">
         <v>77.36</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>104.27</v>
+        <v>103.92</v>
       </c>
       <c r="E5">
         <v>77.52</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6">
-        <v>101.56</v>
+        <v>101.92</v>
       </c>
       <c r="E6">
         <v>77.68</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D7">
-        <v>47.73</v>
+        <v>47.88</v>
       </c>
       <c r="E7">
         <v>77.84</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>36.56</v>
+        <v>36.66</v>
       </c>
       <c r="E8">
         <v>78.01</v>

--- a/rider/weekly/2016_34.xlsx
+++ b/rider/weekly/2016_34.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>306</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.91</c:v>
+                  <c:v>97.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.79</c:v>
+                  <c:v>99.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.55</c:v>
+                  <c:v>105.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.92</c:v>
+                  <c:v>104.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.92</c:v>
+                  <c:v>101.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.88</c:v>
+                  <c:v>47.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.66</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>96.91</v>
+        <v>97.26</v>
       </c>
       <c r="E2">
         <v>77.04</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>99.79</v>
+        <v>99.46</v>
       </c>
       <c r="E3">
         <v>77.2</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>105.55</v>
+        <v>105.33</v>
       </c>
       <c r="E4">
         <v>77.36</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>103.92</v>
+        <v>104.45</v>
       </c>
       <c r="E5">
         <v>77.52</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D6">
-        <v>101.92</v>
+        <v>101.83</v>
       </c>
       <c r="E6">
         <v>77.68</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D7">
-        <v>47.88</v>
+        <v>47.67</v>
       </c>
       <c r="E7">
         <v>77.84</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>36.66</v>
+        <v>36.64</v>
       </c>
       <c r="E8">
         <v>78.01</v>

--- a/rider/weekly/2016_34.xlsx
+++ b/rider/weekly/2016_34.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>294</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.64</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E2">
         <v>77.04</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D3">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E3">
         <v>77.2</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D4">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E4">
         <v>77.36</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E5">
         <v>77.52</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E6">
         <v>77.68</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D7">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E7">
         <v>77.84</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8">
-        <v>36.64</v>
+        <v>36.66</v>
       </c>
       <c r="E8">
         <v>78.01</v>
